--- a/ECE120 Grade Calculator.xlsx
+++ b/ECE120 Grade Calculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8595ED49-D4FF-4D35-B05C-9E8481CAFDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5303ED-ADAA-4D8D-B726-518B33875CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39051AE0-60BC-49C2-890C-21CB6E12BA73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{39051AE0-60BC-49C2-890C-21CB6E12BA73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAIN CALCULATOR" sheetId="1" r:id="rId1"/>
+    <sheet name="HW AVG CALCULATOR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>ECE120 Grade Calculator</t>
   </si>
@@ -65,18 +66,6 @@
     <t>Contribution to Overall Grade</t>
   </si>
   <si>
-    <t>ONLY EDIT CELLS THAT ARE THIS COLOR --&gt;</t>
-  </si>
-  <si>
-    <t>Homework Average (10%)</t>
-  </si>
-  <si>
-    <t>Labs Average (20%)</t>
-  </si>
-  <si>
-    <t>Discussion WS Average (10%)</t>
-  </si>
-  <si>
     <t>Final Grade (Before Extra Credit)</t>
   </si>
   <si>
@@ -180,12 +169,157 @@
   </si>
   <si>
     <t>In-Class Pop Quizzes (Max +1% Independent of Caps)</t>
+  </si>
+  <si>
+    <t>HW3 (90pts)</t>
+  </si>
+  <si>
+    <t>HW5 (10pts)</t>
+  </si>
+  <si>
+    <t>HW6 (64pts)</t>
+  </si>
+  <si>
+    <t>HW7 (56pts)</t>
+  </si>
+  <si>
+    <t>HW8 (67pts)</t>
+  </si>
+  <si>
+    <t>HW9 (100pts)</t>
+  </si>
+  <si>
+    <t>HW10 (100pts)</t>
+  </si>
+  <si>
+    <t>HW11 (60pts)</t>
+  </si>
+  <si>
+    <t>HW12 (30pts)</t>
+  </si>
+  <si>
+    <t>HW13 (65pts)</t>
+  </si>
+  <si>
+    <t>HW14</t>
+  </si>
+  <si>
+    <t>HW1</t>
+  </si>
+  <si>
+    <t>HW2</t>
+  </si>
+  <si>
+    <t>HW4</t>
+  </si>
+  <si>
+    <t>Gradescope Assignments</t>
+  </si>
+  <si>
+    <t>HW5</t>
+  </si>
+  <si>
+    <t>HW11</t>
+  </si>
+  <si>
+    <t>HW12</t>
+  </si>
+  <si>
+    <t>HW13</t>
+  </si>
+  <si>
+    <t>PrairieLearn Assignments</t>
+  </si>
+  <si>
+    <t>Original Grade (pts)</t>
+  </si>
+  <si>
+    <t>Corrections Grade (pts)</t>
+  </si>
+  <si>
+    <t>Average Gradescope Grade (pts)</t>
+  </si>
+  <si>
+    <t>Score (%)</t>
+  </si>
+  <si>
+    <t>Overall HW Average</t>
+  </si>
+  <si>
+    <t>HW3</t>
+  </si>
+  <si>
+    <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7</t>
+  </si>
+  <si>
+    <t>HW8</t>
+  </si>
+  <si>
+    <t>HW9</t>
+  </si>
+  <si>
+    <t>HW10</t>
+  </si>
+  <si>
+    <t>HW4 (75pts)</t>
+  </si>
+  <si>
+    <t>HW1 (72pts)</t>
+  </si>
+  <si>
+    <t>HW2 (65pts)</t>
+  </si>
+  <si>
+    <t>HW11 (20pts)</t>
+  </si>
+  <si>
+    <t>HW12 (12pts)</t>
+  </si>
+  <si>
+    <t>HW13 (10pts)</t>
+  </si>
+  <si>
+    <t>HW5 (30pts)</t>
+  </si>
+  <si>
+    <t>HW14 (40pts)</t>
+  </si>
+  <si>
+    <t>ONLY EDIT CELLS THAT ARE THIS COLOR</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Homework (10%)</t>
+  </si>
+  <si>
+    <t>Labs (20%)</t>
+  </si>
+  <si>
+    <t>Discussion Worksheets (10%)</t>
+  </si>
+  <si>
+    <t>Average Homework Grade Calculator</t>
+  </si>
+  <si>
+    <t>Average Grade on Each HW</t>
+  </si>
+  <si>
+    <t>If you didn't do corrections on a homework assignment (you got full pts on the original attempt) you can leave the corrections grade for that assignment blank.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -426,22 +566,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,27 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -483,6 +622,118 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,332 +1075,750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1F650D-099C-4C14-9D13-C6EDC2ED1B5C}">
-  <dimension ref="B1:G24"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D4" s="59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6">
         <v>0.9</v>
       </c>
-      <c r="D3" s="5">
-        <f>C3*0.1*100</f>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4*0.2*100</f>
-        <v>18.000000000000004</v>
-      </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5" s="68">
         <f>C5*0.1*100</f>
         <v>9.0000000000000018</v>
       </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
+        <v>86</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.9</v>
       </c>
-      <c r="D6" s="5">
-        <f>C6*0.1*100</f>
+      <c r="D6" s="68">
+        <f>C6*0.2*100</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="68">
+        <f>C7*0.1*100</f>
         <v>9.0000000000000018</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="68">
+        <f>C8*0.1*100</f>
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C9" s="6">
         <v>0.9</v>
       </c>
-      <c r="D7" s="5">
-        <f>C7*0.15*100</f>
+      <c r="D9" s="68">
+        <f>C9*0.15*100</f>
         <v>13.5</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F9" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="68">
+        <f>C10*0.15*100</f>
+        <v>13.5</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="69">
+        <f>C11*0.2*100</f>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C12" s="1"/>
+      <c r="D12" s="70">
+        <f>SUM(D5:D11)/100</f>
         <v>0.9</v>
       </c>
-      <c r="D8" s="5">
-        <f>C8*0.15*100</f>
-        <v>13.5</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="6">
-        <f>C9*0.2*100</f>
-        <v>18.000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="9">
-        <f>SUM(D3:D9)/100</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33">
-        <f>(SUM(D3:D9)+SUM(D14:D18))/100</f>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="71">
+        <f>(SUM(D5:D11)+SUM(D16:D20))/100</f>
         <v>0.95400000000000007</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D14" s="5">
-        <f>MIN(C14*0.01, 1)*100</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D15" s="5">
-        <f>MIN(C15*0.02*(60-(D6+D7+D8+D9)), 2, C15*0.02)*100</f>
-        <v>1.8000000000000003</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>0.9</v>
       </c>
-      <c r="D16" s="5">
-        <f>MIN(C16*0.01*(60-(D6+D7+D8+D9)), 1, C16*0.01)*100</f>
+      <c r="D16" s="68">
+        <f>MIN(C16*0.01, 1)*100</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="68">
+        <f>MIN(C17*0.02*(60-(D8+D9+D10+D11)), 2, C17*0.02)*100</f>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="68">
+        <f>MIN(C18*0.01*(60-(D8+D9+D10+D11)), 1, C18*0.01)*100</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="68">
+        <f>MIN(C19*0.01*(10-D5), 1, C19*0.01)*100</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="69">
+        <f>MIN(C20*0.01*(20-D6), 1, C20*0.01)*100</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="22">
+        <f>SUM(D16:D20)/100</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="5">
-        <f>MIN(C17*0.01*(10-D3), 1, C17*0.01)*100</f>
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="G22" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="6">
-        <f>MIN(C18*0.01*(20-D4), 1, C18*0.01)*100</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G23" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G24" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33">
-        <f>SUM(D14:D18)/100</f>
-        <v>5.3999999999999992E-2</v>
-      </c>
-      <c r="F19" s="2" t="s">
+    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+    <row r="26" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F7:F8"/>
+  <mergeCells count="4">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D4" formula="1"/>
+    <ignoredError sqref="D6" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893A08CF-0A9E-4489-8331-BC3F8C2CB734}">
+  <dimension ref="B2:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="I3" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="50"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="51"/>
+      <c r="I4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="42">
+        <f>C20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="43">
+        <f>C21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="34">
+        <v>90</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="32">
+        <f>(C6+MAX(D6,C6))/2</f>
+        <v>90</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="44">
+        <f>E6/90</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="35">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="33">
+        <f>(C7+MAX(D7,C7))/2</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="43">
+        <f>C22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="35">
+        <v>64</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="33">
+        <f>(C8+MAX(D8,C8))/2</f>
+        <v>64</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="I8" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="44">
+        <f>(E7+C23*30)/40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="35">
+        <v>56</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33">
+        <f>(C9+MAX(D9,C9))/2</f>
+        <v>56</v>
+      </c>
+      <c r="G9" s="65">
+        <f>SUM(J4:J17)/14</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="44">
+        <f>E8/64</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="35">
+        <v>67</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="33">
+        <f>(C10+MAX(D10,C10))/2</f>
+        <v>67</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="I10" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="44">
+        <f>E9/56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="35">
+        <v>100</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="33">
+        <f>(C11+MAX(D11,C11))/2</f>
+        <v>100</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="44">
+        <f>E10/67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="35">
+        <v>100</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="33">
+        <f>(C12+MAX(D12,C12))/2</f>
+        <v>100</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="44">
+        <f>E11/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="35">
+        <v>60</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="33">
+        <f>(C13+MAX(D13,C13))/2</f>
+        <v>60</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="44">
+        <f>E12/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="35">
+        <v>30</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="33">
+        <f>(C14+MAX(D14,C14))/2</f>
+        <v>30</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="44">
+        <f>(E13+C24*20)/80</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="35">
+        <v>65</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="33">
+        <f>(C15+MAX(D15,C15))/2</f>
+        <v>65</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="44">
+        <f>(E14+C25*12)/42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="36">
+        <v>40</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="5">
+        <f>(C16+MAX(D16,C16))/2</f>
+        <v>40</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="44">
+        <f>(E15+C26*10)/75</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="45">
+        <f>C16/40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="76"/>
+    </row>
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="E20" s="67"/>
+    </row>
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="67"/>
+    </row>
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="38">
+        <v>1</v>
+      </c>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1</v>
+      </c>
+      <c r="E24" s="75"/>
+    </row>
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="38">
+        <v>1</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="39">
+        <v>1</v>
+      </c>
+      <c r="E26" s="74"/>
+    </row>
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="72"/>
+    </row>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="72"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E19:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ECE120 Grade Calculator.xlsx
+++ b/ECE120 Grade Calculator.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5303ED-ADAA-4D8D-B726-518B33875CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E0CE3-3E4F-46F9-B50B-9FFF0444B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{39051AE0-60BC-49C2-890C-21CB6E12BA73}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN CALCULATOR" sheetId="1" r:id="rId1"/>
     <sheet name="HW AVG CALCULATOR" sheetId="2" r:id="rId2"/>
+    <sheet name="LAB AVG CALCULATOR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>ECE120 Grade Calculator</t>
   </si>
@@ -310,6 +311,117 @@
   </si>
   <si>
     <t>If you didn't do corrections on a homework assignment (you got full pts on the original attempt) you can leave the corrections grade for that assignment blank.</t>
+  </si>
+  <si>
+    <t>Average Lab Grade Calculator</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Final Grade (pts)</t>
+  </si>
+  <si>
+    <t>Lab1</t>
+  </si>
+  <si>
+    <t>Lab2</t>
+  </si>
+  <si>
+    <t>Lab3</t>
+  </si>
+  <si>
+    <t>Lab4</t>
+  </si>
+  <si>
+    <t>Lab5</t>
+  </si>
+  <si>
+    <t>Lab6</t>
+  </si>
+  <si>
+    <t>Lab7</t>
+  </si>
+  <si>
+    <t>Lab8</t>
+  </si>
+  <si>
+    <t>Lab9</t>
+  </si>
+  <si>
+    <t>Lab10</t>
+  </si>
+  <si>
+    <t>Lab11</t>
+  </si>
+  <si>
+    <t>Lab12</t>
+  </si>
+  <si>
+    <t>Lab13</t>
+  </si>
+  <si>
+    <t>1st Deadline Grade (100%)</t>
+  </si>
+  <si>
+    <t>2nd Deadline Grade (80%)</t>
+  </si>
+  <si>
+    <t>3rd Deadline Grade (50%)</t>
+  </si>
+  <si>
+    <t>Lab1 (16pts)</t>
+  </si>
+  <si>
+    <t>Lab2 (19pts)</t>
+  </si>
+  <si>
+    <t>Lab3 (8pts)</t>
+  </si>
+  <si>
+    <t>Lab5 (16pts)</t>
+  </si>
+  <si>
+    <t>Lab7 (48pts)</t>
+  </si>
+  <si>
+    <t>Lab9 (1pt)</t>
+  </si>
+  <si>
+    <t>Lab10 (20pts)</t>
+  </si>
+  <si>
+    <t>Lab11 (2pts)</t>
+  </si>
+  <si>
+    <t>Lab12 (2pts)</t>
+  </si>
+  <si>
+    <t>Lab13 (10(?)pts)</t>
+  </si>
+  <si>
+    <t>Percentage Grade for Each Lab</t>
+  </si>
+  <si>
+    <t>Overall Lab Average</t>
+  </si>
+  <si>
+    <t>Lab4 (25pts) (hardware)</t>
+  </si>
+  <si>
+    <t>Lab6 (35pts) (hardware)</t>
+  </si>
+  <si>
+    <t>Lab8 (45pts) (hardware)</t>
+  </si>
+  <si>
+    <t>Feel free to leave the 2nd and 3rd deadline grades blank if you scored the highest on your original attempt.</t>
+  </si>
+  <si>
+    <t>Droppable</t>
+  </si>
+  <si>
+    <t>Undroppable</t>
   </si>
 </sst>
 </file>
@@ -317,8 +429,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -357,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +524,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -595,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -615,20 +745,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -642,98 +762,130 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1F650D-099C-4C14-9D13-C6EDC2ED1B5C}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,149 +1242,143 @@
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+    <row r="2" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="56"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D5" s="68">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="D5" s="41">
         <f>C5*0.1*100</f>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="F5" s="54" t="s">
+        <v>9.9440000000000008</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41">
         <f>C6*0.2*100</f>
-        <v>18.000000000000004</v>
-      </c>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D7" s="68">
+        <v>0.995</v>
+      </c>
+      <c r="D7" s="41">
         <f>C7*0.1*100</f>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.9500000000000011</v>
+      </c>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="68">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D8" s="41">
         <f>C8*0.1*100</f>
-        <v>9.0000000000000018</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D9" s="68">
+        <v>0.94</v>
+      </c>
+      <c r="D9" s="41">
         <f>C9*0.15*100</f>
-        <v>13.5</v>
-      </c>
-      <c r="F9" s="73" t="s">
+        <v>14.099999999999998</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D10" s="68">
+        <v>0.87</v>
+      </c>
+      <c r="D10" s="41">
         <f>C10*0.15*100</f>
-        <v>13.5</v>
-      </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13.05</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="7">
         <v>0.9</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="42">
         <f>C11*0.2*100</f>
         <v>18.000000000000004</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="70">
+      <c r="D12" s="43">
         <f>SUM(D5:D11)/100</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+        <v>0.94593999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="71">
+      <c r="C13" s="18"/>
+      <c r="D13" s="44">
         <f>(SUM(D5:D11)+SUM(D16:D20))/100</f>
-        <v>0.95400000000000007</v>
-      </c>
-      <c r="F13" s="24" t="s">
+        <v>0.97589399999999993</v>
+      </c>
+      <c r="F13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1240,14 +1386,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1257,16 +1403,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D16" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="41">
         <f>MIN(C16*0.01, 1)*100</f>
-        <v>0.90000000000000013</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>19</v>
@@ -1280,11 +1426,11 @@
         <v>42</v>
       </c>
       <c r="C17" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="68">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="D17" s="41">
         <f>MIN(C17*0.02*(60-(D8+D9+D10+D11)), 2, C17*0.02)*100</f>
-        <v>1.8000000000000003</v>
+        <v>1.4394</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>13</v>
@@ -1298,11 +1444,11 @@
         <v>39</v>
       </c>
       <c r="C18" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D18" s="68">
+        <v>1</v>
+      </c>
+      <c r="D18" s="41">
         <f>MIN(C18*0.01*(60-(D8+D9+D10+D11)), 1, C18*0.01)*100</f>
-        <v>0.90000000000000013</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>15</v>
@@ -1316,11 +1462,11 @@
         <v>41</v>
       </c>
       <c r="C19" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="68">
+        <v>1</v>
+      </c>
+      <c r="D19" s="41">
         <f>MIN(C19*0.01*(10-D5), 1, C19*0.01)*100</f>
-        <v>0.89999999999999858</v>
+        <v>5.5999999999999162E-2</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>14</v>
@@ -1334,11 +1480,11 @@
         <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="69">
+        <v>1</v>
+      </c>
+      <c r="D20" s="42">
         <f>MIN(C20*0.01*(20-D6), 1, C20*0.01)*100</f>
-        <v>0.90000000000000013</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
@@ -1348,13 +1494,13 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19">
         <f>SUM(D16:D20)/100</f>
-        <v>5.3999999999999992E-2</v>
+        <v>2.9953999999999991E-2</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>25</v>
@@ -1419,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893A08CF-0A9E-4489-8331-BC3F8C2CB734}">
-  <dimension ref="B2:J29"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1438,300 +1584,307 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="I3" s="60" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="I3" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="61"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="50"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="51"/>
-      <c r="I4" s="29" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="I4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="34">
         <f>C20</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="35">
         <f>C21</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="28">
+        <v>88.75</v>
+      </c>
+      <c r="D6" s="28">
         <v>90</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="32">
-        <f>(C6+MAX(D6,C6))/2</f>
-        <v>90</v>
-      </c>
-      <c r="I6" s="30" t="s">
+      <c r="E6" s="26">
+        <f t="shared" ref="E6:E16" si="0">(C6+MAX(D6,C6))/2</f>
+        <v>89.375</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="36">
         <f>E6/90</f>
-        <v>1</v>
+        <v>0.99305555555555558</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="29">
         <v>10</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="33">
-        <f>(C7+MAX(D7,C7))/2</f>
+      <c r="D7" s="29"/>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="35">
         <f>C22</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="35">
-        <v>64</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="33">
-        <f>(C8+MAX(D8,C8))/2</f>
-        <v>64</v>
-      </c>
-      <c r="G8" s="64"/>
-      <c r="I8" s="30" t="s">
+      <c r="C8" s="29">
+        <v>56.5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>63.5</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="I8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="36">
         <f>(E7+C23*30)/40</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="29">
+        <v>55</v>
+      </c>
+      <c r="D9" s="29">
         <v>56</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="33">
-        <f>(C9+MAX(D9,C9))/2</f>
-        <v>56</v>
-      </c>
-      <c r="G9" s="65">
-        <f>SUM(J4:J17)/14</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="G9" s="63">
+        <f>(SUM(J4:J17)-SMALL(J4:J17, 1)-SMALL(J4:J17,2))/12</f>
+        <v>0.99942129629629628</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="36">
         <f>E8/64</f>
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="29">
         <v>67</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="33">
-        <f>(C10+MAX(D10,C10))/2</f>
+      <c r="D10" s="21"/>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="I10" s="30" t="s">
+      <c r="G10" s="64"/>
+      <c r="I10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="36">
         <f>E9/56</f>
-        <v>1</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="29">
         <v>100</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="33">
-        <f>(C11+MAX(D11,C11))/2</f>
+      <c r="D11" s="21"/>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="36">
         <f>E10/67</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="29">
         <v>100</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="33">
-        <f>(C12+MAX(D12,C12))/2</f>
+      <c r="D12" s="21"/>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="36">
         <f>E11/100</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="29">
         <v>60</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="33">
-        <f>(C13+MAX(D13,C13))/2</f>
+      <c r="D13" s="21"/>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="36">
         <f>E12/100</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="29">
         <v>30</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="33">
-        <f>(C14+MAX(D14,C14))/2</f>
+      <c r="D14" s="21"/>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="G14" s="80"/>
+      <c r="I14" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="36">
         <f>(E13+C24*20)/80</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="29">
         <v>65</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="33">
-        <f>(C15+MAX(D15,C15))/2</f>
+      <c r="D15" s="21"/>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="36">
         <f>(E14+C25*12)/42</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="30">
         <v>40</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="5">
-        <f>(C16+MAX(D16,C16))/2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="36">
         <f>(E15+C26*10)/75</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="37">
         <f>C16/40</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="76"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="67" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1739,55 +1892,55 @@
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="37">
-        <v>1</v>
-      </c>
-      <c r="E20" s="67"/>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="38">
-        <v>1</v>
-      </c>
-      <c r="E21" s="67"/>
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="38">
-        <v>1</v>
-      </c>
-      <c r="E22" s="67"/>
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="38">
-        <v>1</v>
-      </c>
-      <c r="E23" s="53"/>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="38">
-        <v>1</v>
-      </c>
-      <c r="E24" s="75"/>
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="38">
-        <v>1</v>
-      </c>
-      <c r="E25" s="73" t="s">
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="53" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1795,19 +1948,16 @@
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="39">
-        <v>1</v>
-      </c>
-      <c r="E26" s="74"/>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="E26" s="54"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="72"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="72"/>
-    </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="26"/>
+      <c r="E28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1821,4 +1971,419 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A92C07-51BA-47D8-AC1F-CF7AE0BAFDAA}">
+  <dimension ref="B2:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="K4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="K5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="73">
+        <f>G7/16</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="74">
+        <f>G8/19</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="82"/>
+    </row>
+    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="21">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="26">
+        <f>MIN(MAX(D7, E7*0.8,F7*0.5), 16)</f>
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="74">
+        <f>G9/8</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="82"/>
+    </row>
+    <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="21">
+        <v>19</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="27">
+        <f>MIN(MAX(D8, E8*0.8,F8*0.5), 19)</f>
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="74">
+        <f>G10/25</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="82"/>
+    </row>
+    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="21">
+        <v>8</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="27">
+        <f>MIN(MAX(D9, E9*0.8,F9*0.5), 8)</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="74">
+        <f>G11/16</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="82"/>
+    </row>
+    <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="21">
+        <v>25</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="27">
+        <f>MIN(D10, 25)</f>
+        <v>25</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="K10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="74">
+        <f>G12/35</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="82"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="21">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="27">
+        <f>MIN(MAX(D11, E11*0.8,F11*0.5), 16)</f>
+        <v>16</v>
+      </c>
+      <c r="I11" s="76">
+        <f>(SUM(L5:L17)-SMALL(L5:L14,1))/12</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="74">
+        <f>G13/48</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="82"/>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="21">
+        <v>35</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="27">
+        <f>MIN(D12, 35)</f>
+        <v>35</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="K12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="74">
+        <f>G15/1</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="82"/>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="21">
+        <v>48</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="27">
+        <f>MIN(MAX(D13, E13*0.8,F13*0.5), 48)</f>
+        <v>48</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="74">
+        <f>G16/20</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="82"/>
+    </row>
+    <row r="14" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="21">
+        <v>45</v>
+      </c>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="27">
+        <f>MIN(D14, 45)</f>
+        <v>45</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="74">
+        <f>G17/2</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="83"/>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="27">
+        <f>MIN(MAX(D15, E15*0.8,F15*0.5), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="74">
+        <f>G14/45</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="21">
+        <v>20</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="27">
+        <f>MIN(MAX(D16, E16*0.8,F16*0.5), 20)</f>
+        <v>20</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="K16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="74">
+        <f>G18/2</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="21">
+        <v>2</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="27">
+        <f>MIN(MAX(D17, E17*0.8,F17*0.5), 2)</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="75">
+        <f>G19/10</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="85"/>
+    </row>
+    <row r="18" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="27">
+        <f>MIN(MAX(D18, E18*0.8,F18*0.5), 2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="22">
+        <v>10</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="5">
+        <f>MIN(MAX(D19, E19*0.8,F19*0.5), 10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="M5:M14"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ECE120 Grade Calculator.xlsx
+++ b/ECE120 Grade Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5E0CE3-3E4F-46F9-B50B-9FFF0444B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866DA9E0-87F9-4E99-B816-6A0E7C65CAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{39051AE0-60BC-49C2-890C-21CB6E12BA73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39051AE0-60BC-49C2-890C-21CB6E12BA73}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN CALCULATOR" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>ECE120 Grade Calculator</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Lab12 (2pts)</t>
   </si>
   <si>
-    <t>Lab13 (10(?)pts)</t>
-  </si>
-  <si>
     <t>Percentage Grade for Each Lab</t>
   </si>
   <si>
@@ -422,6 +419,12 @@
   </si>
   <si>
     <t>Undroppable</t>
+  </si>
+  <si>
+    <t>Lab13 (5pts)</t>
+  </si>
+  <si>
+    <t>Note that Lab4, Lab6, and Lab8 did not have extended due dates because they were hardware labs. Lab13, although a software lab, also did not have any extended due dates.</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +545,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -720,12 +729,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -783,13 +814,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,12 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,27 +893,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -886,6 +911,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1F650D-099C-4C14-9D13-C6EDC2ED1B5C}">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,11 +1274,14 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38" t="s">
@@ -1260,73 +1293,71 @@
       <c r="D4" s="40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="6">
-        <v>0.99439999999999995</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="41">
         <f>C5*0.1*100</f>
-        <v>9.9440000000000008</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D6" s="41">
         <f>C6*0.2*100</f>
-        <v>20</v>
-      </c>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>18.000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="6">
-        <v>0.995</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="41">
         <f>C7*0.1*100</f>
-        <v>9.9500000000000011</v>
-      </c>
-      <c r="F7" s="52"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>0.95499999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="D8" s="41">
         <f>C8*0.1*100</f>
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="F8" s="64"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="D9" s="41">
         <f>C9*0.15*100</f>
-        <v>14.099999999999998</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>83</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,13 +1365,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="D10" s="41">
         <f>C10*0.15*100</f>
-        <v>13.05</v>
-      </c>
-      <c r="F10" s="54"/>
+        <v>13.5</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -1353,15 +1387,27 @@
         <f>C11*0.2*100</f>
         <v>18.000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="43">
         <f>SUM(D5:D11)/100</f>
-        <v>0.94593999999999989</v>
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1371,19 +1417,21 @@
       <c r="C13" s="18"/>
       <c r="D13" s="44">
         <f>(SUM(D5:D11)+SUM(D16:D20))/100</f>
-        <v>0.97589399999999993</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="49"/>
+        <v>0.95400000000000007</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
+      <c r="F14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1397,10 +1445,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,17 +1456,17 @@
         <v>43</v>
       </c>
       <c r="C16" s="6">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D16" s="41">
         <f>MIN(C16*0.01, 1)*100</f>
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,17 +1474,17 @@
         <v>42</v>
       </c>
       <c r="C17" s="6">
-        <v>0.71970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D17" s="41">
         <f>MIN(C17*0.02*(60-(D8+D9+D10+D11)), 2, C17*0.02)*100</f>
-        <v>1.4394</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>21</v>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,17 +1492,17 @@
         <v>39</v>
       </c>
       <c r="C18" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D18" s="41">
-        <f>MIN(C18*0.01*(60-(D8+D9+D10+D11)), 1, C18*0.01)*100</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>22</v>
+        <f>MAX(MIN(C18*0.01*(60-(D8+D9+D10+D11+D17)), 1, C18*0.01)*100, 0)</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,17 +1510,17 @@
         <v>41</v>
       </c>
       <c r="C19" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D19" s="41">
         <f>MIN(C19*0.01*(10-D5), 1, C19*0.01)*100</f>
-        <v>5.5999999999999162E-2</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>23</v>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1480,17 +1528,17 @@
         <v>40</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D20" s="42">
         <f>MIN(C20*0.01*(20-D6), 1, C20*0.01)*100</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>32</v>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1500,61 +1548,37 @@
       <c r="C21" s="20"/>
       <c r="D21" s="19">
         <f>SUM(D16:D20)/100</f>
-        <v>2.9953999999999991E-2</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>33</v>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G22" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="15" t="s">
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G23" s="16" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1567,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893A08CF-0A9E-4489-8331-BC3F8C2CB734}">
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1584,28 +1608,28 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
-      <c r="I3" s="55" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="I3" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="56"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="I4" s="23" t="s">
         <v>55</v>
       </c>
       <c r="J4" s="34">
         <f>C20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1626,44 +1650,38 @@
       </c>
       <c r="J5" s="35">
         <f>C21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="28">
-        <v>88.75</v>
-      </c>
-      <c r="D6" s="28">
-        <v>90</v>
-      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="26">
         <f t="shared" ref="E6:E16" si="0">(C6+MAX(D6,C6))/2</f>
-        <v>89.375</v>
+        <v>0</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="36">
         <f>E6/90</f>
-        <v>0.99305555555555558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="29">
-        <v>10</v>
-      </c>
+      <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="27">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="73" t="s">
         <v>68</v>
       </c>
       <c r="I7" s="24" t="s">
@@ -1671,198 +1689,176 @@
       </c>
       <c r="J7" s="35">
         <f>C22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29">
-        <v>56.5</v>
-      </c>
-      <c r="D8" s="29">
-        <v>63.5</v>
-      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G8" s="66"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="74"/>
       <c r="I8" s="24" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="36">
         <f>(E7+C23*30)/40</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="29">
-        <v>55</v>
-      </c>
-      <c r="D9" s="29">
-        <v>56</v>
-      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="27">
         <f t="shared" si="0"/>
-        <v>55.5</v>
-      </c>
-      <c r="G9" s="63">
+        <v>0</v>
+      </c>
+      <c r="G9" s="71">
         <f>(SUM(J4:J17)-SMALL(J4:J17, 1)-SMALL(J4:J17,2))/12</f>
-        <v>0.99942129629629628</v>
+        <v>0</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="36">
         <f>E8/64</f>
-        <v>0.9375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="29">
-        <v>67</v>
-      </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="21"/>
       <c r="E10" s="27">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="G10" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="72"/>
       <c r="I10" s="24" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="36">
         <f>E9/56</f>
-        <v>0.9910714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="29">
-        <v>100</v>
-      </c>
+      <c r="C11" s="29"/>
       <c r="D11" s="21"/>
       <c r="E11" s="27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>72</v>
       </c>
       <c r="J11" s="36">
         <f>E10/67</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="29">
-        <v>100</v>
-      </c>
+      <c r="C12" s="29"/>
       <c r="D12" s="21"/>
       <c r="E12" s="27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>73</v>
       </c>
       <c r="J12" s="36">
         <f>E11/100</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="29">
-        <v>60</v>
-      </c>
+      <c r="C13" s="29"/>
       <c r="D13" s="21"/>
       <c r="E13" s="27">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>74</v>
       </c>
       <c r="J13" s="36">
         <f>E12/100</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="29">
-        <v>30</v>
-      </c>
+      <c r="C14" s="29"/>
       <c r="D14" s="21"/>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G14" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="49"/>
       <c r="I14" s="24" t="s">
         <v>60</v>
       </c>
       <c r="J14" s="36">
         <f>(E13+C24*20)/80</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="29">
-        <v>65</v>
-      </c>
+      <c r="C15" s="29"/>
       <c r="D15" s="21"/>
       <c r="E15" s="27">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="36">
         <f>(E14+C25*12)/42</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="30">
-        <v>40</v>
-      </c>
+      <c r="C16" s="30"/>
       <c r="D16" s="22"/>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="36">
         <f>(E15+C26*10)/75</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1871,11 +1867,11 @@
       </c>
       <c r="J17" s="37">
         <f>C16/40</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="47"/>
+      <c r="H18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
@@ -1884,7 +1880,7 @@
       <c r="C19" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="75" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1892,55 +1888,43 @@
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="31">
-        <v>1</v>
-      </c>
-      <c r="E20" s="68"/>
+      <c r="C20" s="31"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="32">
-        <v>1</v>
-      </c>
-      <c r="E21" s="68"/>
+      <c r="C21" s="32"/>
+      <c r="E21" s="76"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="32">
-        <v>1</v>
-      </c>
-      <c r="E22" s="68"/>
+      <c r="C22" s="32"/>
+      <c r="E22" s="76"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="32">
-        <v>1</v>
-      </c>
-      <c r="E23" s="69"/>
+      <c r="C23" s="32"/>
+      <c r="E23" s="77"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="32">
-        <v>1</v>
-      </c>
+      <c r="C24" s="32"/>
       <c r="E24" s="46"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="32">
-        <v>1</v>
-      </c>
-      <c r="E25" s="53" t="s">
+      <c r="C25" s="32"/>
+      <c r="E25" s="63" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1948,10 +1932,8 @@
       <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="33">
-        <v>1</v>
-      </c>
-      <c r="E26" s="54"/>
+      <c r="C26" s="33"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="45"/>
@@ -1975,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A92C07-51BA-47D8-AC1F-CF7AE0BAFDAA}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="C3:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,384 +1979,371 @@
     <col min="15" max="15" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-    </row>
-    <row r="4" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="57" t="s">
+    <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
-      <c r="K4" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="56"/>
-    </row>
-    <row r="5" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="K4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
       <c r="K5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="50">
         <f>G7/16</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="48" t="s">
         <v>93</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="36">
         <f>G8/19</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="82"/>
-    </row>
-    <row r="7" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="21">
-        <v>16</v>
-      </c>
+      <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="26">
         <f>MIN(MAX(D7, E7*0.8,F7*0.5), 16)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="36">
         <f>G9/8</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="82"/>
-    </row>
-    <row r="8" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="80"/>
+    </row>
+    <row r="8" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="21">
-        <v>19</v>
-      </c>
+      <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="27">
         <f>MIN(MAX(D8, E8*0.8,F8*0.5), 19)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="36">
         <f>G10/25</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="82"/>
-    </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="80"/>
+    </row>
+    <row r="9" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="21">
-        <v>8</v>
-      </c>
+      <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="27">
         <f>MIN(MAX(D9, E9*0.8,F9*0.5), 8)</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>121</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="36">
         <f>G11/16</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="82"/>
-    </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="80"/>
+    </row>
+    <row r="10" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="21">
-        <v>25</v>
-      </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+        <v>121</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="27">
-        <f>MIN(D10, 25)</f>
-        <v>25</v>
-      </c>
-      <c r="I10" s="66"/>
+        <f>MIN(MAX(D10, 0), 25)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="74"/>
       <c r="K10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="36">
         <f>G12/35</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="82"/>
-    </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="80"/>
+    </row>
+    <row r="11" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="21">
-        <v>16</v>
-      </c>
+      <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="27">
         <f>MIN(MAX(D11, E11*0.8,F11*0.5), 16)</f>
-        <v>16</v>
-      </c>
-      <c r="I11" s="76">
+        <v>0</v>
+      </c>
+      <c r="I11" s="71">
         <f>(SUM(L5:L17)-SMALL(L5:L14,1))/12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="36">
         <f>G13/48</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="82"/>
-    </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="80"/>
+    </row>
+    <row r="12" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="21">
-        <v>35</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+        <v>122</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="27">
-        <f>MIN(D12, 35)</f>
-        <v>35</v>
-      </c>
-      <c r="I12" s="77"/>
+        <f>MIN(MAX(D12, 0), 35)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="72"/>
       <c r="K12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="36">
         <f>G15/1</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="82"/>
-    </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="80"/>
+    </row>
+    <row r="13" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="21">
-        <v>48</v>
-      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="27">
         <f>MIN(MAX(D13, E13*0.8,F13*0.5), 48)</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="36">
         <f>G16/20</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="82"/>
-    </row>
-    <row r="14" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="80"/>
+    </row>
+    <row r="14" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="21">
-        <v>45</v>
-      </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+        <v>123</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="27">
-        <f>MIN(D14, 45)</f>
-        <v>45</v>
+        <f>MIN(MAX(D14, 0), 45)</f>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="36">
         <f>G17/2</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="83"/>
-    </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="81"/>
+    </row>
+    <row r="15" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="27">
         <f>MIN(MAX(D15, E15*0.8,F15*0.5), 1)</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="63" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="36">
         <f>G14/45</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="21">
-        <v>20</v>
-      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="27">
         <f>MIN(MAX(D16, E16*0.8,F16*0.5), 20)</f>
-        <v>20</v>
-      </c>
-      <c r="I16" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="64"/>
       <c r="K16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="36">
         <f>G18/2</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="21">
-        <v>2</v>
-      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="27">
         <f>MIN(MAX(D17, E17*0.8,F17*0.5), 2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="75">
-        <f>G19/10</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="85"/>
+      <c r="L17" s="37">
+        <f>G19/5</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="83"/>
     </row>
     <row r="18" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="21">
-        <v>2</v>
-      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="27">
         <f>MIN(MAX(D18, E18*0.8,F18*0.5), 2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="22">
-        <v>10</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="5">
-        <f>MIN(MAX(D19, E19*0.8,F19*0.5), 10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="67" t="s">
-        <v>125</v>
-      </c>
+        <f>MIN(MAX(D19, E19*0.8,F19*0.5), 5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="85"/>
+    </row>
+    <row r="22" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E23" s="68"/>
+      <c r="D23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E24" s="68"/>
+      <c r="D24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="68"/>
-    </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="69"/>
+      <c r="D25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="I25" s="85"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="76"/>
+      <c r="F26" s="76"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="76"/>
+      <c r="F27" s="76"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="77"/>
+      <c r="F28" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E22:E26"/>
+  <mergeCells count="10">
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="M5:M14"/>
     <mergeCell ref="M15:M17"/>
     <mergeCell ref="K4:L4"/>
@@ -2382,7 +2351,6 @@
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="C4:G5"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
